--- a/public/templates/Finance_Resource_Plan_Staffing_Plan.xlsx
+++ b/public/templates/Finance_Resource_Plan_Staffing_Plan.xlsx
@@ -545,7 +545,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>FINANCE Resource Plan Staffing Plan Project</t>
+          <t>Banking Implementation Project</t>
         </is>
       </c>
     </row>
@@ -572,7 +572,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>Enterprise AI/ML Implementation</t>
+          <t>Enterprise Banking Implementation</t>
         </is>
       </c>
     </row>
@@ -648,6 +648,7 @@
         </is>
       </c>
     </row>
+    <row r="13"/>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
@@ -1113,6 +1114,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -3359,6 +3361,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -4015,6 +4018,7 @@
         </is>
       </c>
     </row>
+    <row r="11"/>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
@@ -4090,6 +4094,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -4108,7 +4113,7 @@
       </c>
       <c r="D3" s="6" t="inlineStr">
         <is>
-          <t>Machine Learning</t>
+          <t>Banking Operations</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
@@ -4472,6 +4477,7 @@
         <v>3.2</v>
       </c>
     </row>
+    <row r="11"/>
     <row r="12">
       <c r="A12" s="11" t="inlineStr">
         <is>
@@ -4560,6 +4566,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -5127,6 +5134,8 @@
         </is>
       </c>
     </row>
+    <row r="14"/>
+    <row r="15"/>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
@@ -5234,6 +5243,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="6" t="inlineStr">
         <is>
@@ -5612,6 +5622,8 @@
         </is>
       </c>
     </row>
+    <row r="12"/>
+    <row r="13"/>
     <row r="14">
       <c r="A14" s="11" t="inlineStr">
         <is>
